--- a/odom_content_circle.xlsx
+++ b/odom_content_circle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/d49gupta_uwaterloo_ca/Documents/Documents/School/Fourth Year/MTE 544/MTE544_student/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{DD8641E3-BD1A-4AE2-8DFA-935635663900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA1C194-163C-468C-901D-766CC3C8F969}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{DD8641E3-BD1A-4AE2-8DFA-935635663900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5985EF-C591-43C3-B258-F16C1B51DC13}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{2C9A16D7-2E7E-49C8-AF5C-4AFBBB1B9794}"/>
   </bookViews>
@@ -588,6 +588,8481 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Odom</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Circle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>odom_content_circle!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>odom_content_circle!$D$2:$D$407</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="406"/>
+                <c:pt idx="0">
+                  <c:v>1.7595200212656399E+18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75952002131266E+18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7595200213637399E+18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7595200213932001E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75952002145426E+18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75952002151666E+18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75952002156365E+18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75952002161168E+18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7595200216586501E+18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75952002170768E+18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7595200217701199E+18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7595200218034299E+18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7595200218503601E+18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.75952002191566E+18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7595200219637E+18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7595200220117601E+18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7595200220597801E+18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7595200221077499E+18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7595200221717199E+18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7595200222033201E+18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7595200222677901E+18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.75952002231665E+18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.75952002236386E+18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7595200224117299E+18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.75952002245984E+18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.75952002250767E+18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.75952002257055E+18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7595200226068301E+18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75952002265038E+18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.75952002271694E+18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.75952002276355E+18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.75952002281167E+18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.75952002285874E+18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.75952002290771E+18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7595200229702899E+18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75952002302002E+18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.75952002305149E+18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7595200231169999E+18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.75952002316386E+18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.75952002321168E+18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7595200232598799E+18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7595200233077E+18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7595200233566899E+18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.75952002340368E+18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7595200234510999E+18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7595200235167201E+18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.75952002356317E+18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.75952002361171E+18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7595200236597901E+18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7595200237077E+18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7595200237567201E+18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7595200238040399E+18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.75952002385171E+18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.75952002391569E+18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.75952002396384E+18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.75952002401171E+18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7595200240600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.75952002410669E+18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7595200241716201E+18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7595200242031201E+18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7595200242677299E+18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7595200243150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75952002436371E+18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.75952002441169E+18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7595200244592699E+18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7595200245077801E+18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7595200245557499E+18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.75952002460382E+18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.75952002465152E+18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7595200247158001E+18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7595200247637E+18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7595200248117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7595200248597199E+18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7595200249077299E+18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.75952002497152E+18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7595200250040599E+18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7595200250673201E+18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.75952002511582E+18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7595200251635999E+18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7595200252117E+18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.75952002525984E+18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7595200253078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.75952002537139E+18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.75952002540382E+18</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7595200254690299E+18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7595200255157E+18</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7595200255637901E+18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.75952002561171E+18</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.75952002565949E+18</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7595200257087501E+18</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7595200257717E+18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.75952002580397E+18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7595200258518001E+18</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7595200259151201E+18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7595200259639401E+18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7595200260117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7595200260599199E+18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.75952002610883E+18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.75952002615522E+18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7595200262035E+18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.75952002626849E+18</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7595200263157399E+18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7595200263640901E+18</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7595200264117601E+18</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7595200264592901E+18</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.7595200265088499E+18</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.75952002655565E+18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7595200266033101E+18</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7595200266516401E+18</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7595200267152499E+18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7595200267633201E+18</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.75952002681199E+18</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7595200268591501E+18</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7595200269080699E+18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7595200269551401E+18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.75952002700397E+18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7595200270672499E+18</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7595200271157199E+18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.75952002716367E+18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7595200272117499E+18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7595200272595699E+18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7595200273078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7595200273714501E+18</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7595200274191601E+18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.75952002745171E+18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.75952002751568E+18</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.75952002756387E+18</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7595200276120399E+18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7595200276600901E+18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.7595200277071201E+18</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7595200277560599E+18</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7595200278031501E+18</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.75952002785186E+18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7595200279151501E+18</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.75952002796401E+18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.7595200280112699E+18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7595200280602501E+18</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.75952002810751E+18</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.7595200281717399E+18</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.75952002820397E+18</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.7595200282672399E+18</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.75952002831586E+18</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.7595200283639601E+18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7595200284114501E+18</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7595200284599099E+18</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.7595200285079099E+18</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.75952002855517E+18</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.7595200286032E+18</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.75952002866723E+18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.7595200287157299E+18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.75952002876385E+18</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.7595200288117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.7595200288608E+18</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7595200289077399E+18</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.75952002897137E+18</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7595200290031099E+18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7595200290679099E+18</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7595200291158899E+18</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.7595200291640599E+18</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.7595200292117801E+18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.75952002926097E+18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.7595200293077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.75952002935745E+18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.75952002940399E+18</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.7595200294510999E+18</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7595200295157499E+18</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.7595200295632E+18</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.7595200296117801E+18</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.7595200296617999E+18</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.7595200297077399E+18</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.75952002975569E+18</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.7595200298040599E+18</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.75952002986719E+18</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.75952002991585E+18</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.75952002996383E+18</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.75952003001278E+18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7595200300617999E+18</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7595200301077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.75952003015599E+18</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7595200302039401E+18</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.7595200302519401E+18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.7595200303157499E+18</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.7595200303637701E+18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.7595200304127401E+18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.7595200304600399E+18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.7595200305077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.75952003055568E+18</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.75952003060334E+18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.7595200306529001E+18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.7595200307159401E+18</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.7595200307637601E+18</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.75952003081279E+18</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.7595200308597701E+18</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.7595200309077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.7595200309730199E+18</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.7595200310034099E+18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.75952003106754E+18</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.7595200311157701E+18</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.7595200311638001E+18</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.7595200312127501E+18</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.7595200312597701E+18</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.7595200313077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.7595200313551201E+18</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.75952003140399E+18</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7595200314519501E+18</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.7595200315150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.7595200315637701E+18</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.7595200316128E+18</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.7595200316597801E+18</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.7595200317078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.7595200317557901E+18</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.7595200318032599E+18</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.7595200318525299E+18</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.7595200319157801E+18</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.7595200319632E+18</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.7595200320128E+18</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.7595200320599601E+18</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.7595200321077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.7595200321553001E+18</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.75952003220337E+18</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.7595200322676201E+18</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.7595200323170099E+18</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.7595200323631099E+18</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.75952003241281E+18</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.75952003245984E+18</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.75952003250786E+18</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.7595200325560801E+18</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.7595200326034299E+18</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.75952003266768E+18</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.7595200327157801E+18</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.7595200327478999E+18</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.75952003281278E+18</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.7595200328600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.7595200329078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.75952003295549E+18</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.7595200330034099E+18</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.7595200330521101E+18</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.7595200331151401E+18</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.7595200331632699E+18</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.7595200332126899E+18</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.7595200332600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.75952003330781E+18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.75952003335586E+18</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.7595200334034401E+18</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.75952003345149E+18</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.7595200335157901E+18</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.75952003356399E+18</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.75952003361181E+18</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.75952003365986E+18</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.7595200337078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.7595200337552E+18</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.7595200338033999E+18</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.7595200338675699E+18</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.7595200339154401E+18</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.75952003396387E+18</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.75952003401182E+18</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.75952003405981E+18</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.75952003410782E+18</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.7595200341565701E+18</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.7595200342037199E+18</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.75952003425201E+18</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.7595200343151099E+18</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.7595200343633001E+18</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.7595200344117901E+18</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.75952003445987E+18</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.7595200345078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.7595200345554701E+18</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.7595200346045299E+18</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.7595200346517399E+18</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.7595200347150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.7595200347650701E+18</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.75952003481184E+18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.7595200348591601E+18</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.75952003490783E+18</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.75952003495522E+18</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.75952003500451E+18</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.75952003505186E+18</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.75952003511682E+18</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.7595200351649999E+18</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.75952003521184E+18</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.7595200352591501E+18</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.7595200353078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.7595200353553201E+18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.7595200354047401E+18</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.75952003545184E+18</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.75952003551697E+18</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.75952003556431E+18</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.75952003561187E+18</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.75952003565982E+18</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.75952003570783E+18</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.75952003575586E+18</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.75952003580447E+18</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.7595200358672901E+18</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.75952003591601E+18</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.75952003596479E+18</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.75952003601183E+18</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.75952003606003E+18</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.75952003610783E+18</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.7595200361568599E+18</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.7595200362060101E+18</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.75952003626736E+18</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.75952003631521E+18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.7595200363660001E+18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.75952003641186E+18</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.75952003645984E+18</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.75952003650786E+18</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.7595200365555599E+18</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.7595200366051699E+18</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.7595200366519099E+18</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.7595200367168399E+18</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.75952003676514E+18</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.75952003681186E+18</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.75952003685919E+18</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.75952003690787E+18</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.7595200369570801E+18</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.7595200370058399E+18</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.7595200370685199E+18</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.75952003709985E+18</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.7595200371650299E+18</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.7595200372128699E+18</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.75952003725997E+18</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.7595200373089001E+18</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.7595200373716101E+18</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.7595200374045599E+18</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.7595200374671401E+18</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.75952003751715E+18</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.75952003756387E+18</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.75952003761185E+18</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.75952003765923E+18</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.75952003770785E+18</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.75952003775761E+18</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.75952003780398E+18</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.7595200378672901E+18</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.75952003791711E+18</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.7595200379646799E+18</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.75952003801186E+18</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.7595200380600399E+18</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.7595200381078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.7595200381573601E+18</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.75952003820386E+18</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.7595200382679601E+18</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.7595200383178501E+18</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.75952003836434E+18</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.7595200384118799E+18</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.75952003845986E+18</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.75952003850786E+18</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.75952003855634E+18</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.7595200386049001E+18</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.75952003866749E+18</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.7595200386998799E+18</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.7595200387631401E+18</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.75952003881187E+18</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.7595200388591301E+18</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.7595200389078799E+18</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.75952003895678E+18</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.7595200390047201E+18</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.75952003905155E+18</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.7595200391169201E+18</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.75952003916401E+18</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.7595200392128901E+18</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.7595200392591301E+18</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.7595200393078999E+18</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.75952003937297E+18</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.7595200394048901E+18</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.75952003946797E+18</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.75952003951774E+18</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.7595200395648699E+18</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.75952003961187E+18</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.75952003965935E+18</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.75952003970799E+18</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.7595200397578701E+18</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.7595200398042099E+18</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.75952003986851E+18</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.75952003991715E+18</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.7595200399649101E+18</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.7595200400118799E+18</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.75952004006E+18</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.7595200401089001E+18</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.7595200401727401E+18</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.7595200402050701E+18</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.7595200402672499E+18</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.75952004030109E+18</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.7595200403645E+18</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.7595200404118899E+18</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.75952004045971E+18</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7595200405078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7595200405567099E+18</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.7595200406046899E+18</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.7595200406519401E+18</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.7595200407162199E+18</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.7595200407648799E+18</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.7595200408118999E+18</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7595200408596201E+18</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.7595200409089201E+18</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.7595200409730801E+18</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.75952004100464E+18</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.75952004106833E+18</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.7595200410994099E+18</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.7595200411641101E+18</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.7595200412129001E+18</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.7595200412608599E+18</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.7595200413089101E+18</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.7595200413564001E+18</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.75952004141953E+18</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.7595200414515799E+18</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.7595200415170801E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>odom_content_circle!$A$2:$A$407</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="406"/>
+                <c:pt idx="0">
+                  <c:v>-1.90617287158966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9035565853118801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9024404287338199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9025130271911599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.90220403671264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9048833847045801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.90541779994964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.90539538860321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.90435123443603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.90491724014282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9053865671157799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9053534269332799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.90519154071807</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.90705382823944</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.9113645553588801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.9177285432815501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.9260568618774401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.9354013204574501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9511086940765301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9603024721145601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9803390502929601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9980171918869001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.01588654518127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.0340991020202601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.05218410491943</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.0697398185729901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.09298419952392</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.1051883697509699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1229145526885902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.14673423767089</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.16359519958496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.1807446479797301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.1973919868469198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.21434426307678</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.236172914505</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.2524676322936998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.26324367523193</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2847518920898402</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.3000309467315598</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.3154523372650102</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.3306140899658199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.34578514099121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.3609092235565101</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.37511086463928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.38938903808593</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.4077656269073402</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.4209909439086901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4345059394836399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.4472405910491899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.4601562023162802</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.4729418754577601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.4848964214324898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4968075752258301</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.5122475624084402</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.52358722686767</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.53453469276428</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5450360774993799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5553405284881499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.5689158439636199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.5754015445709202</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5877611637115399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.59663605690002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.6051664352416899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.6136257648468</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.6215736865997301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.6293172836303702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.6367123126983598</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.6436622142791699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.6502189636230402</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.6586320400238002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.6643533706664999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.66995000839233</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.67499327659606</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.67963290214538</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.6852769851684499</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.6879591941833398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.6926693916320801</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.6959841251373202</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.69891333580017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.7015099525451598</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.7035663127899099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.7054190635681099</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.7069666385650599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.7076313495635902</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.7082891464233398</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.70840096473693</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.7083225250244101</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.7077219486236501</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.7067008018493599</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7055461406707701</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7034337520599299</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.7020730972289999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.6996600627899099</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.6958560943603498</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.6927180290222101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.6892409324645898</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.68511462211608</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.6806430816650302</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.6761081218719398</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.67104768753051</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.6638221740722599</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.6581065654754599</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.6519651412963801</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.64553451538085</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.6384856700897199</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.6311292648315399</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.6237666606903001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.6157925128936701</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.6077179908752401</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.5960924625396702</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.58705329895019</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-2.5777456760406401</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.5681607723236</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.5580978393554599</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.5478885173797599</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.53744196891784</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.52279305458068</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.5114457607269198</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.4998724460601802</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.4878118038177401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.4756956100463801</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.4632871150970401</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.4460084438323899</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.4329016208648602</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.4239411354064901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.4059813022613499</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.3919317722320499</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.37777471542358</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.3632707595825102</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.3485114574432302</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.3336920738220202</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.3184962272643999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.3031375408172599</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-2.2823007106781001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-2.2662327289581299</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-2.2502746582031201</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-2.2343180179595898</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.2181489467620801</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.1956877708435001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.1843452453613201</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-2.1619164943695002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.1443340778350799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.12699842453002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.1095929145812899</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.0918798446655198</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.0740339756011901</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.0559267997741699</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.0376949310302699</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.0135235786437899</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.9950696229934599</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.9763411283493</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.957723736763</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.9385131597518901</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.92005586624145</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.89488101005554</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.8825035095214799</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.8573526144027701</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.8384428024291899</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.81976377964019</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.80011069774627</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.7804596424102701</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.7616393566131501</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.7422130107879601</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.72352313995361</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.7042645215988099</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.6787297725677399</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.65929055213928</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.6398068666458101</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.6199146509170499</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.60161817073822</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-1.5823615789413401</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.5637720823287899</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.53794813156127</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.51952648162841</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.5007792711257899</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.48129999637603</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.4624117612838701</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.44445848464965</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.42607605457305</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.40764343738555</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.3892478942871</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-1.36525070667266</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1.34665191173553</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1.3286405801773</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.31165206432342</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-1.2941811084747299</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.27702677249908</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1.25907313823699</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.2413580417632999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1.21914947032928</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-1.2023336887359599</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-1.1855109930038401</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.1695485115051201</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.1533904075622501</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-1.1315181255340501</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.12115514278411</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-1.1004322767257599</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-1.0853340625762899</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-1.07004153728485</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.05497694015502</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-1.04070436954498</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.0262969732284499</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.012211561203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.99781119823455799</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.98420804738998402</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.96658080816268899</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.95374608039855902</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.94064092636108398</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.92821729183196999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.915835201740264</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.90386480093002297</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.89232826232910101</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.88119739294052102</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.86694103479385298</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-0.85622447729110696</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.84533667564392001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.835377156734466</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.82560670375823897</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.81633329391479403</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.80710005760192804</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.79552364349365201</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.78707593679428101</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.779161036014556</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.77147644758224398</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-0.76407247781753496</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.75685054063796997</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.75025331974029497</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-0.74373602867126398</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-0.73573082685470503</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-0.73010921478271396</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-0.72651135921478205</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.720053970813751</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-0.71576088666915805</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-0.71173083782196001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-0.70784932374954201</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-0.70452582836151101</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-0.70118671655654896</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-0.69761317968368497</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-0.69533884525298995</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-0.69338709115982</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.69197636842727595</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-0.69084966182708696</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-0.69008374214172297</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-0.68983960151672297</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-0.68958145380020097</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-0.69021648168563798</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-0.69109380245208696</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-0.69233196973800604</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-0.693808794021606</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-0.69577515125274603</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-0.69807523488998402</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.70082110166549605</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.70491057634353604</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.70841068029403598</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.712133228778839</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-0.71652203798294001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-0.72108465433120705</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-0.72611963748931796</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-0.73154479265213002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-0.73710578680038397</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-0.74307495355606001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.75155383348464899</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-0.75852936506271296</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-0.76560235023498502</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-0.77306967973709095</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.78085851669311501</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.788957178592681</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.79758495092391901</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.80608749389648404</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-0.81833475828170699</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-0.82812958955764704</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-0.83777499198913497</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-0.84799361228942804</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.85806602239608698</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-0.86917215585708596</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.88015317916870095</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.89131700992584195</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-0.90753048658370905</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-0.91932386159896795</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-0.93159312009811401</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.94413238763809204</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-0.95670199394225997</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-0.97025740146636896</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.98377370834350497</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.99738687276840199</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-1.0164096355438199</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-1.03047943115234</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-1.0446028709411599</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-1.0592026710510201</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-1.07426309585571</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-1.09006512165069</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-1.10573995113372</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-1.1260015964507999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.14225029945373</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.15863645076751</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.1746144294738701</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.1910107135772701</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.20787012577056</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-1.2253174781799301</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.24252080917358</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.26474404335021</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-1.2824836969375599</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-1.3007403612136801</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-1.31788313388824</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-1.33544290065765</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-1.35317206382751</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-1.3715418577194201</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-1.3903325796127299</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-1.40781450271606</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-1.4328266382217401</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-1.45221626758575</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-1.47028756141662</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-1.4890666007995601</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-1.50817394256591</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-1.5272694826126001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-1.54641497135162</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-1.5716960430145199</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-1.58392941951751</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-1.6101038455963099</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-1.62888491153717</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-1.6475635766982999</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-1.66689908504486</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-1.6923961639404199</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-1.70572113990783</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-1.73041355609893</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-1.75039482116699</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.76913130283355</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-1.7883327007293699</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1.8074311017990099</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-1.8267115354537899</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-1.8463618755340501</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-1.86436831951141</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-1.88963711261749</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-1.9093532562255799</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-1.9275593757629299</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-1.94553399085998</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1.963916182518</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-1.9827340841293299</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-2.00188016891479</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-2.0195002555847101</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-2.0433974266052202</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-2.0620377063751198</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-2.07915163040161</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-2.0969986915588299</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-2.1147811412811199</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-2.1323747634887602</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-2.1501195430755602</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-2.1672773361206001</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-2.18962502479553</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-2.2009260654449401</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-2.22320127487182</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-2.23980283737182</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-2.2560036182403498</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-2.2721078395843501</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-2.2880961894989</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-2.30362749099731</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-2.3188912868499698</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-2.33947324752807</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-2.3539793491363499</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-2.3690276145935001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-2.38301229476928</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-2.3970868587493799</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-2.4154629707336399</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-2.42447805404663</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-2.4419460296630802</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-2.4557466506957999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-2.4678928852081299</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-2.4799437522888099</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-2.4919013977050701</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-2.5036735534667902</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-2.51583528518676</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-2.5266151428222599</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-2.5408651828765798</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-2.5516695976257302</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-2.56143593788146</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-2.5711023807525599</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-2.5804412364959699</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-2.5897731781005802</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-2.60164046287536</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-2.6071500778198198</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-2.6174950599670401</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-2.6227662563323899</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-2.6328833103179901</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-2.6397335529327299</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-2.6465375423431299</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-2.6527254581451398</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-2.65904688835144</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-2.6646428108215301</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-2.66992807388305</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-2.6765575408935498</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-2.6810553073882999</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-2.68511939048767</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-2.6890099048614502</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-2.6924309730529701</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-2.69649934768676</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-2.69828104972839</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-2.7014231681823699</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-2.7026197910308798</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-2.7047750949859601</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-2.7060620784759499</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-2.7068736553192099</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-2.7073462009429901</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-2.7074015140533398</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-2.7070062160491899</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-2.7066726684570299</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-2.7052922248840301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-411D-40F8-92DF-34DE1C7ADF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>odom_content_circle!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>odom_content_circle!$D$2:$D$407</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="406"/>
+                <c:pt idx="0">
+                  <c:v>1.7595200212656399E+18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75952002131266E+18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7595200213637399E+18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7595200213932001E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75952002145426E+18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75952002151666E+18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75952002156365E+18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75952002161168E+18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7595200216586501E+18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75952002170768E+18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7595200217701199E+18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7595200218034299E+18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7595200218503601E+18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.75952002191566E+18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7595200219637E+18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7595200220117601E+18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7595200220597801E+18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7595200221077499E+18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7595200221717199E+18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7595200222033201E+18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7595200222677901E+18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.75952002231665E+18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.75952002236386E+18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7595200224117299E+18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.75952002245984E+18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.75952002250767E+18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.75952002257055E+18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7595200226068301E+18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75952002265038E+18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.75952002271694E+18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.75952002276355E+18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.75952002281167E+18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.75952002285874E+18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.75952002290771E+18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7595200229702899E+18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75952002302002E+18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.75952002305149E+18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7595200231169999E+18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.75952002316386E+18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.75952002321168E+18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7595200232598799E+18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7595200233077E+18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7595200233566899E+18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.75952002340368E+18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7595200234510999E+18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7595200235167201E+18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.75952002356317E+18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.75952002361171E+18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7595200236597901E+18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7595200237077E+18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7595200237567201E+18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7595200238040399E+18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.75952002385171E+18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.75952002391569E+18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.75952002396384E+18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.75952002401171E+18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7595200240600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.75952002410669E+18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7595200241716201E+18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7595200242031201E+18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7595200242677299E+18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7595200243150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75952002436371E+18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.75952002441169E+18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7595200244592699E+18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7595200245077801E+18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7595200245557499E+18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.75952002460382E+18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.75952002465152E+18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7595200247158001E+18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7595200247637E+18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7595200248117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7595200248597199E+18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7595200249077299E+18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.75952002497152E+18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7595200250040599E+18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7595200250673201E+18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.75952002511582E+18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7595200251635999E+18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7595200252117E+18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.75952002525984E+18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7595200253078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.75952002537139E+18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.75952002540382E+18</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7595200254690299E+18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7595200255157E+18</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7595200255637901E+18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.75952002561171E+18</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.75952002565949E+18</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7595200257087501E+18</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7595200257717E+18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.75952002580397E+18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7595200258518001E+18</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7595200259151201E+18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7595200259639401E+18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7595200260117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7595200260599199E+18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.75952002610883E+18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.75952002615522E+18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7595200262035E+18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.75952002626849E+18</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7595200263157399E+18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7595200263640901E+18</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7595200264117601E+18</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7595200264592901E+18</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.7595200265088499E+18</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.75952002655565E+18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7595200266033101E+18</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7595200266516401E+18</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7595200267152499E+18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7595200267633201E+18</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.75952002681199E+18</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7595200268591501E+18</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7595200269080699E+18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7595200269551401E+18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.75952002700397E+18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7595200270672499E+18</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7595200271157199E+18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.75952002716367E+18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7595200272117499E+18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7595200272595699E+18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7595200273078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7595200273714501E+18</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7595200274191601E+18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.75952002745171E+18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.75952002751568E+18</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.75952002756387E+18</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7595200276120399E+18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7595200276600901E+18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.7595200277071201E+18</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7595200277560599E+18</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7595200278031501E+18</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.75952002785186E+18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7595200279151501E+18</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.75952002796401E+18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.7595200280112699E+18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7595200280602501E+18</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.75952002810751E+18</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.7595200281717399E+18</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.75952002820397E+18</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.7595200282672399E+18</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.75952002831586E+18</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.7595200283639601E+18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7595200284114501E+18</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7595200284599099E+18</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.7595200285079099E+18</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.75952002855517E+18</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.7595200286032E+18</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.75952002866723E+18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.7595200287157299E+18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.75952002876385E+18</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.7595200288117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.7595200288608E+18</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7595200289077399E+18</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.75952002897137E+18</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7595200290031099E+18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7595200290679099E+18</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7595200291158899E+18</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.7595200291640599E+18</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.7595200292117801E+18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.75952002926097E+18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.7595200293077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.75952002935745E+18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.75952002940399E+18</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.7595200294510999E+18</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7595200295157499E+18</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.7595200295632E+18</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.7595200296117801E+18</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.7595200296617999E+18</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.7595200297077399E+18</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.75952002975569E+18</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.7595200298040599E+18</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.75952002986719E+18</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.75952002991585E+18</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.75952002996383E+18</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.75952003001278E+18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7595200300617999E+18</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7595200301077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.75952003015599E+18</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7595200302039401E+18</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.7595200302519401E+18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.7595200303157499E+18</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.7595200303637701E+18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.7595200304127401E+18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.7595200304600399E+18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.7595200305077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.75952003055568E+18</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.75952003060334E+18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.7595200306529001E+18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.7595200307159401E+18</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.7595200307637601E+18</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.75952003081279E+18</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.7595200308597701E+18</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.7595200309077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.7595200309730199E+18</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.7595200310034099E+18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.75952003106754E+18</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.7595200311157701E+18</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.7595200311638001E+18</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.7595200312127501E+18</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.7595200312597701E+18</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.7595200313077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.7595200313551201E+18</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.75952003140399E+18</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7595200314519501E+18</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.7595200315150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.7595200315637701E+18</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.7595200316128E+18</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.7595200316597801E+18</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.7595200317078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.7595200317557901E+18</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.7595200318032599E+18</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.7595200318525299E+18</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.7595200319157801E+18</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.7595200319632E+18</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.7595200320128E+18</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.7595200320599601E+18</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.7595200321077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.7595200321553001E+18</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.75952003220337E+18</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.7595200322676201E+18</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.7595200323170099E+18</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.7595200323631099E+18</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.75952003241281E+18</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.75952003245984E+18</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.75952003250786E+18</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.7595200325560801E+18</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.7595200326034299E+18</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.75952003266768E+18</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.7595200327157801E+18</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.7595200327478999E+18</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.75952003281278E+18</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.7595200328600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.7595200329078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.75952003295549E+18</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.7595200330034099E+18</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.7595200330521101E+18</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.7595200331151401E+18</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.7595200331632699E+18</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.7595200332126899E+18</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.7595200332600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.75952003330781E+18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.75952003335586E+18</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.7595200334034401E+18</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.75952003345149E+18</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.7595200335157901E+18</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.75952003356399E+18</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.75952003361181E+18</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.75952003365986E+18</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.7595200337078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.7595200337552E+18</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.7595200338033999E+18</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.7595200338675699E+18</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.7595200339154401E+18</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.75952003396387E+18</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.75952003401182E+18</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.75952003405981E+18</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.75952003410782E+18</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.7595200341565701E+18</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.7595200342037199E+18</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.75952003425201E+18</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.7595200343151099E+18</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.7595200343633001E+18</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.7595200344117901E+18</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.75952003445987E+18</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.7595200345078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.7595200345554701E+18</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.7595200346045299E+18</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.7595200346517399E+18</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.7595200347150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.7595200347650701E+18</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.75952003481184E+18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.7595200348591601E+18</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.75952003490783E+18</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.75952003495522E+18</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.75952003500451E+18</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.75952003505186E+18</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.75952003511682E+18</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.7595200351649999E+18</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.75952003521184E+18</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.7595200352591501E+18</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.7595200353078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.7595200353553201E+18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.7595200354047401E+18</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.75952003545184E+18</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.75952003551697E+18</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.75952003556431E+18</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.75952003561187E+18</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.75952003565982E+18</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.75952003570783E+18</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.75952003575586E+18</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.75952003580447E+18</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.7595200358672901E+18</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.75952003591601E+18</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.75952003596479E+18</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.75952003601183E+18</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.75952003606003E+18</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.75952003610783E+18</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.7595200361568599E+18</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.7595200362060101E+18</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.75952003626736E+18</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.75952003631521E+18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.7595200363660001E+18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.75952003641186E+18</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.75952003645984E+18</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.75952003650786E+18</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.7595200365555599E+18</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.7595200366051699E+18</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.7595200366519099E+18</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.7595200367168399E+18</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.75952003676514E+18</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.75952003681186E+18</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.75952003685919E+18</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.75952003690787E+18</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.7595200369570801E+18</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.7595200370058399E+18</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.7595200370685199E+18</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.75952003709985E+18</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.7595200371650299E+18</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.7595200372128699E+18</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.75952003725997E+18</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.7595200373089001E+18</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.7595200373716101E+18</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.7595200374045599E+18</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.7595200374671401E+18</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.75952003751715E+18</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.75952003756387E+18</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.75952003761185E+18</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.75952003765923E+18</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.75952003770785E+18</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.75952003775761E+18</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.75952003780398E+18</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.7595200378672901E+18</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.75952003791711E+18</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.7595200379646799E+18</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.75952003801186E+18</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.7595200380600399E+18</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.7595200381078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.7595200381573601E+18</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.75952003820386E+18</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.7595200382679601E+18</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.7595200383178501E+18</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.75952003836434E+18</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.7595200384118799E+18</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.75952003845986E+18</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.75952003850786E+18</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.75952003855634E+18</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.7595200386049001E+18</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.75952003866749E+18</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.7595200386998799E+18</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.7595200387631401E+18</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.75952003881187E+18</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.7595200388591301E+18</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.7595200389078799E+18</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.75952003895678E+18</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.7595200390047201E+18</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.75952003905155E+18</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.7595200391169201E+18</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.75952003916401E+18</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.7595200392128901E+18</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.7595200392591301E+18</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.7595200393078999E+18</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.75952003937297E+18</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.7595200394048901E+18</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.75952003946797E+18</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.75952003951774E+18</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.7595200395648699E+18</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.75952003961187E+18</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.75952003965935E+18</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.75952003970799E+18</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.7595200397578701E+18</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.7595200398042099E+18</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.75952003986851E+18</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.75952003991715E+18</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.7595200399649101E+18</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.7595200400118799E+18</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.75952004006E+18</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.7595200401089001E+18</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.7595200401727401E+18</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.7595200402050701E+18</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.7595200402672499E+18</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.75952004030109E+18</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.7595200403645E+18</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.7595200404118899E+18</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.75952004045971E+18</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7595200405078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7595200405567099E+18</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.7595200406046899E+18</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.7595200406519401E+18</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.7595200407162199E+18</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.7595200407648799E+18</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.7595200408118999E+18</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7595200408596201E+18</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.7595200409089201E+18</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.7595200409730801E+18</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.75952004100464E+18</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.75952004106833E+18</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.7595200410994099E+18</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.7595200411641101E+18</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.7595200412129001E+18</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.7595200412608599E+18</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.7595200413089101E+18</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.7595200413564001E+18</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.75952004141953E+18</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.7595200414515799E+18</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.7595200415170801E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>odom_content_circle!$B$2:$B$407</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="406"/>
+                <c:pt idx="0">
+                  <c:v>3.8363990783691402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.83658766746521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8368556499481201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8365027904510498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8358995914459202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.838623046875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8381249904632502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8376724720001198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8381285667419398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8382079601287802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8379628658294598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.83804059028625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8380372524261399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8376882076263401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8367714881896902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8353459835052401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.83365273475646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8312859535217201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8271949291229199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.82495021820068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.81888604164123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8136637210845898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8076405525207502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.80139112472534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.79492783546447</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7882132530212398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7786934375762899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7735495567321702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7658162117004301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7548069953918399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.74648118019104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7376039028167698</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.7285456657409601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7187256813049299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7055504322052002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6952350139617902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.68814826011657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.67345738410949</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6625492572784402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6509592533111501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6392974853515598</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.6269569396972599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6141798496246298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6016349792480402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5886173248290998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5707414150238002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5578153133392298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5436866283416699</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5300910472869802</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5155053138732901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5007011890411301</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4860749244689901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4709212779998699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.4504594802856401</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.4348299503326398</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.4186825752258301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4031460285186701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.38709115982055</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3647534847259499</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.3536345958709699</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3313403129577601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3146378993988002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2975580692291202</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.28001713752746</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.26251173019409</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.24466681480407</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.2269709110260001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.20913338661193</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.19127345085144</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1669342517852699</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1487081050872798</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1302425861358598</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.11186671257019</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.0933465957641602</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0685977935790998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0559389591217001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0309312343597399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0120556354522701</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.99321365356445</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.97412109375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9548795223236</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.93584108352661</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.91055011749267</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8977406024932799</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.8720450401306099</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.85324835777282</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.8339855670928902</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.8152205944061199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.7960534095764098</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.77671122550964</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7516911029815598</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.7385659217834402</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.7195739746093701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.69392538070678</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.67527747154235</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.65671515464782</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.63757944107055</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.61862587928771</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.6004259586334202</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5819206237792902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.5568749904632502</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.5393030643463099</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.5207970142364502</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5028667449951101</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4847376346588099</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.4665780067443799</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.4490749835968</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.43154573440551</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.4142198562621999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.3912184238433798</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.3742604255676198</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.3574075698852499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.3405628204345699</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.3242502212524401</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.3080205917358398</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.2922203540802002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.2710118293762198</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.2555768489837602</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.2399513721465998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.2247908115386901</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.2099738121032702</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1954717636108398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1760797500610298</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1620287895202601</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.15287184715271</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1348288059234601</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1215672492980899</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.10855937004089</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.09564805030822</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0832240581512398</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.0709493160247798</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.0591566562652499</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.04764652252197</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.0326471328735298</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.0220367908477699</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0114796161651598</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.0012543201446502</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.9915472269058201</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.9788620471954299</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.97254657745361</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.9607008695602399</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.95210337638854</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9439349174499501</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.9360893964767401</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.92879331111907</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.9218227863311701</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.9152039289474401</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.90868699550628</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.9006501436233501</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8950446844100901</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.88979244232177</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.8847731351852399</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.8801440000534</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.87590539455413</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.87090969085693</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.86852943897247</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.86452996730804</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8617867231369001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.8595222234725901</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.8577190637588501</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8561211824417101</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.85502409934997</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.85406410694122</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.8535952568054199</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.8535014390945399</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.85399758815765</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.85479688644409</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.8559864759445099</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.85760426521301</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.85925209522247</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.86133348941802</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.8638936281204199</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.8679997920989899</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.87148308753967</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.8750294446945099</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.87939012050628</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.88383400440216</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.8885461091995199</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.89368736743927</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.89939141273498</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.90515160560607</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.9134479761123599</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.92015945911407</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.9273003339767401</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.9342509508132899</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.94184947013854</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.9496207237243599</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.95816922187805</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.9670175313949501</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.9785519838333101</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9880739450454701</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.9979051351547199</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.0074169635772701</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.0178856849670401</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.03234791755676</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.03955650329589</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.0543851852416899</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.0656874179839999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.07758164405822</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.0897581577300999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.1020004749297998</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.1146256923675502</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.1274764537811199</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.1410334110260001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.15447473526</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.1724545955657901</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.1864340305328298</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.20091223716735</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.2154393196105899</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.2302103042602499</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.24531817436218</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.2604782581329301</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.2758824825286799</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.29618072509765</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.3121414184570299</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.3287866115570002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.34498119354248</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.36121654510498</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.3777120113372798</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.39453077316284</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.4169125556945801</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.4344997406005802</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.4518616199493399</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.4695699214935298</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.4867908954620299</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.5047369003295898</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.52239489555358</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.54050421714782</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.5646722316741899</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.5828411579132</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.59555840492248</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.6204659938812198</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.6385414600372301</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.65709280967712</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.6752870082855198</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.69410800933837</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.71352887153625</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.73842072486877</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.7580041885375901</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.7773733139038002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.7959733009338299</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.8154335021972599</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.8347373008728001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.8537299633026101</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.8729910850524898</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.89888143539428</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.9179151058196999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.9370303153991699</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.9563193321228001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.9753499031066801</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.9945149421691801</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.0135831832885698</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.0389122962951598</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.0579550266265798</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.0766422748565598</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3.0950698852539</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3.1136937141418399</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3.1324911117553702</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3.1513249874114901</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.16933822631835</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.18729424476623</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.2113976478576598</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.2293930053710902</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3.24736475944519</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.2651584148406898</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.28273248672485</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.2999861240386901</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.3175954818725502</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.3342525959014799</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3.3569281101226802</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.37395811080932</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.3900520801544101</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.4060244560241699</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.4217834472656201</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3.4377522468566801</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3.4537379741668701</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.46874475479125</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.4897034168243399</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.5045871734619101</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.5194537639617902</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.5334827899932799</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.5475690364837602</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.5613937377929599</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.57552909851074</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.5889041423797599</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.6069383621215798</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.61973881721496</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.63205695152282</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.6441609859466499</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.6563539505004798</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.6681950092315598</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.6801242828369101</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.69434165954589</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.7055370807647701</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.7160685062408398</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.7260935306549001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.7357211112975999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.7451403141021702</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.7547659873962398</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.76351737976074</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3.7743887901306099</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.7826757431030198</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.7906641960143999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.7977628707885698</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.8048825263977002</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.81149005889892</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.81803107261657</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.82425808906555</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.8297717571258501</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.8368453979492099</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.84206819534301</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3.8464126586914</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.85060691833496</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3.8543307781219398</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.8578224182128902</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.86080741882324</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3.86429619789123</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3.8655788898468</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.8680784702300999</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3.8693597316741899</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3.87044930458068</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3.8711078166961599</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3.8716139793395898</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3.8713238239288299</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3.87091708183288</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3.86991834640502</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3.86884570121765</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3.8671278953552202</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3.8653571605682302</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.8628790378570499</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3.8601276874542201</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3.85730528831481</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3.8528947830200102</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.8488476276397701</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3.8447904586791899</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3.8405022621154701</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3.83575439453125</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3.83060526847839</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.8247158527374201</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3.8191020488739</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.8106515407562198</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.8037152290344198</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3.7970871925353999</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.7896587848663299</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3.7818894386291499</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3.7741022109985298</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3.7655146121978702</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3.7568457126617401</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3.7448365688323899</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3.7386369705200102</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3.7254571914672798</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>3.7153351306915199</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3.7048311233520499</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3.6943304538726802</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3.6829576492309499</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3.6717784404754599</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3.6602520942687899</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3.64406037330627</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.6320414543151802</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3.6191196441650302</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3.6064810752868599</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3.5931224822997998</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3.5752546787261901</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3.5661106109619101</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.5478920936584402</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.5327732563018799</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3.51853227615356</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.5042185783386199</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3.4895043373107901</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3.4740929603576598</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3.4575314521789502</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3.44226050376892</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3.4212605953216499</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3.4045484066009499</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3.3888015747070299</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3.3723950386047301</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3.3559288978576598</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3.3385200500488201</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.3153631687164302</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3.30394339561462</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3.2816295623779199</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3.2697525024414</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3.2458429336547798</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3.2283294200897199</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3.21042704582214</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3.1926121711730899</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3.17360019683837</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3.1556704044342001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3.1373651027679399</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.11234354972839</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3.0941929817199698</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3.0757627487182599</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3.0567884445190399</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3.0378243923187198</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3.0129263401031401</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2.9999368190765301</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2.97499275207519</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2.9622666835784899</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2.9362046718597399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>2.9176266193389799</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2.8981957435607901</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2.8794755935668901</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>2.8601052761077801</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2.8352711200714098</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2.8223800659179599</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2.7963116168975799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-411D-40F8-92DF-34DE1C7ADF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>odom_content_circle!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>odom_content_circle!$D$2:$D$407</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="406"/>
+                <c:pt idx="0">
+                  <c:v>1.7595200212656399E+18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75952002131266E+18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7595200213637399E+18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7595200213932001E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75952002145426E+18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75952002151666E+18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75952002156365E+18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75952002161168E+18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7595200216586501E+18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75952002170768E+18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7595200217701199E+18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7595200218034299E+18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7595200218503601E+18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.75952002191566E+18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7595200219637E+18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7595200220117601E+18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7595200220597801E+18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7595200221077499E+18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7595200221717199E+18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7595200222033201E+18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7595200222677901E+18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.75952002231665E+18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.75952002236386E+18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7595200224117299E+18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.75952002245984E+18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.75952002250767E+18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.75952002257055E+18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7595200226068301E+18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75952002265038E+18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.75952002271694E+18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.75952002276355E+18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.75952002281167E+18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.75952002285874E+18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.75952002290771E+18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7595200229702899E+18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75952002302002E+18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.75952002305149E+18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7595200231169999E+18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.75952002316386E+18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.75952002321168E+18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7595200232598799E+18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7595200233077E+18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7595200233566899E+18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.75952002340368E+18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7595200234510999E+18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7595200235167201E+18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.75952002356317E+18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.75952002361171E+18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7595200236597901E+18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7595200237077E+18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7595200237567201E+18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7595200238040399E+18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.75952002385171E+18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.75952002391569E+18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.75952002396384E+18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.75952002401171E+18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7595200240600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.75952002410669E+18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7595200241716201E+18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7595200242031201E+18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7595200242677299E+18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7595200243150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75952002436371E+18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.75952002441169E+18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7595200244592699E+18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7595200245077801E+18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7595200245557499E+18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.75952002460382E+18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.75952002465152E+18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7595200247158001E+18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7595200247637E+18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7595200248117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7595200248597199E+18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7595200249077299E+18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.75952002497152E+18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7595200250040599E+18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7595200250673201E+18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.75952002511582E+18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7595200251635999E+18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7595200252117E+18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.75952002525984E+18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7595200253078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.75952002537139E+18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.75952002540382E+18</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7595200254690299E+18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7595200255157E+18</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7595200255637901E+18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.75952002561171E+18</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.75952002565949E+18</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7595200257087501E+18</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7595200257717E+18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.75952002580397E+18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7595200258518001E+18</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7595200259151201E+18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7595200259639401E+18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7595200260117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7595200260599199E+18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.75952002610883E+18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.75952002615522E+18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7595200262035E+18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.75952002626849E+18</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7595200263157399E+18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7595200263640901E+18</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7595200264117601E+18</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7595200264592901E+18</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.7595200265088499E+18</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.75952002655565E+18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7595200266033101E+18</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7595200266516401E+18</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7595200267152499E+18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7595200267633201E+18</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.75952002681199E+18</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7595200268591501E+18</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7595200269080699E+18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7595200269551401E+18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.75952002700397E+18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7595200270672499E+18</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7595200271157199E+18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.75952002716367E+18</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7595200272117499E+18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7595200272595699E+18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7595200273078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7595200273714501E+18</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7595200274191601E+18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.75952002745171E+18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.75952002751568E+18</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.75952002756387E+18</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7595200276120399E+18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7595200276600901E+18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.7595200277071201E+18</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7595200277560599E+18</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7595200278031501E+18</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.75952002785186E+18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7595200279151501E+18</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.75952002796401E+18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.7595200280112699E+18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7595200280602501E+18</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.75952002810751E+18</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.7595200281717399E+18</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.75952002820397E+18</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.7595200282672399E+18</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.75952002831586E+18</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.7595200283639601E+18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7595200284114501E+18</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7595200284599099E+18</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.7595200285079099E+18</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.75952002855517E+18</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.7595200286032E+18</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.75952002866723E+18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.7595200287157299E+18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.75952002876385E+18</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.7595200288117199E+18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.7595200288608E+18</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7595200289077399E+18</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.75952002897137E+18</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7595200290031099E+18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7595200290679099E+18</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7595200291158899E+18</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.7595200291640599E+18</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.7595200292117801E+18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.75952002926097E+18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.7595200293077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.75952002935745E+18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.75952002940399E+18</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.7595200294510999E+18</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7595200295157499E+18</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.7595200295632E+18</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.7595200296117801E+18</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.7595200296617999E+18</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.7595200297077399E+18</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.75952002975569E+18</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.7595200298040599E+18</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.75952002986719E+18</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.75952002991585E+18</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.75952002996383E+18</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.75952003001278E+18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7595200300617999E+18</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7595200301077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.75952003015599E+18</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7595200302039401E+18</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.7595200302519401E+18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.7595200303157499E+18</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.7595200303637701E+18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.7595200304127401E+18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.7595200304600399E+18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.7595200305077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.75952003055568E+18</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.75952003060334E+18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.7595200306529001E+18</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.7595200307159401E+18</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.7595200307637601E+18</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.75952003081279E+18</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.7595200308597701E+18</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.7595200309077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.7595200309730199E+18</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.7595200310034099E+18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.75952003106754E+18</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.7595200311157701E+18</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.7595200311638001E+18</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.7595200312127501E+18</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.7595200312597701E+18</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.7595200313077901E+18</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.7595200313551201E+18</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.75952003140399E+18</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7595200314519501E+18</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.7595200315150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.7595200315637701E+18</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.7595200316128E+18</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.7595200316597801E+18</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.7595200317078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.7595200317557901E+18</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.7595200318032599E+18</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.7595200318525299E+18</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.7595200319157801E+18</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.7595200319632E+18</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.7595200320128E+18</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.7595200320599601E+18</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.7595200321077701E+18</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.7595200321553001E+18</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.75952003220337E+18</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.7595200322676201E+18</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.7595200323170099E+18</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.7595200323631099E+18</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.75952003241281E+18</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.75952003245984E+18</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.75952003250786E+18</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.7595200325560801E+18</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.7595200326034299E+18</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.75952003266768E+18</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.7595200327157801E+18</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.7595200327478999E+18</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.75952003281278E+18</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.7595200328600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.7595200329078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.75952003295549E+18</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.7595200330034099E+18</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.7595200330521101E+18</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.7595200331151401E+18</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.7595200331632699E+18</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.7595200332126899E+18</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.7595200332600699E+18</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.75952003330781E+18</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.75952003335586E+18</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.7595200334034401E+18</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.75952003345149E+18</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.7595200335157901E+18</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.75952003356399E+18</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.75952003361181E+18</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.75952003365986E+18</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.7595200337078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.7595200337552E+18</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.7595200338033999E+18</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.7595200338675699E+18</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.7595200339154401E+18</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.75952003396387E+18</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.75952003401182E+18</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.75952003405981E+18</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.75952003410782E+18</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.7595200341565701E+18</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.7595200342037199E+18</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.75952003425201E+18</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.7595200343151099E+18</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.7595200343633001E+18</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.7595200344117901E+18</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.75952003445987E+18</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.7595200345078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.7595200345554701E+18</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.7595200346045299E+18</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.7595200346517399E+18</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.7595200347150999E+18</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.7595200347650701E+18</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.75952003481184E+18</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.7595200348591601E+18</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.75952003490783E+18</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.75952003495522E+18</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.75952003500451E+18</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.75952003505186E+18</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.75952003511682E+18</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.7595200351649999E+18</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.75952003521184E+18</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.7595200352591501E+18</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.7595200353078001E+18</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.7595200353553201E+18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.7595200354047401E+18</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.75952003545184E+18</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.75952003551697E+18</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.75952003556431E+18</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.75952003561187E+18</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.75952003565982E+18</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.75952003570783E+18</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.75952003575586E+18</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.75952003580447E+18</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.7595200358672901E+18</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.75952003591601E+18</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.75952003596479E+18</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.75952003601183E+18</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.75952003606003E+18</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.75952003610783E+18</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.7595200361568599E+18</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.7595200362060101E+18</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.75952003626736E+18</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.75952003631521E+18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.7595200363660001E+18</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.75952003641186E+18</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.75952003645984E+18</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.75952003650786E+18</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.7595200365555599E+18</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.7595200366051699E+18</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.7595200366519099E+18</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.7595200367168399E+18</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.75952003676514E+18</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.75952003681186E+18</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.75952003685919E+18</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.75952003690787E+18</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.7595200369570801E+18</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.7595200370058399E+18</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.7595200370685199E+18</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.75952003709985E+18</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.7595200371650299E+18</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.7595200372128699E+18</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.75952003725997E+18</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.7595200373089001E+18</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.7595200373716101E+18</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.7595200374045599E+18</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.7595200374671401E+18</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.75952003751715E+18</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.75952003756387E+18</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.75952003761185E+18</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.75952003765923E+18</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.75952003770785E+18</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.75952003775761E+18</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.75952003780398E+18</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.7595200378672901E+18</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.75952003791711E+18</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.7595200379646799E+18</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.75952003801186E+18</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.7595200380600399E+18</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.7595200381078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.7595200381573601E+18</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.75952003820386E+18</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.7595200382679601E+18</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.7595200383178501E+18</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.75952003836434E+18</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.7595200384118799E+18</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.75952003845986E+18</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.75952003850786E+18</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.75952003855634E+18</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.7595200386049001E+18</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.75952003866749E+18</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.7595200386998799E+18</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.7595200387631401E+18</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.75952003881187E+18</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.7595200388591301E+18</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.7595200389078799E+18</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.75952003895678E+18</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.7595200390047201E+18</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.75952003905155E+18</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.7595200391169201E+18</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.75952003916401E+18</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.7595200392128901E+18</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.7595200392591301E+18</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.7595200393078999E+18</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.75952003937297E+18</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.7595200394048901E+18</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.75952003946797E+18</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.75952003951774E+18</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.7595200395648699E+18</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.75952003961187E+18</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.75952003965935E+18</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.75952003970799E+18</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.7595200397578701E+18</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.7595200398042099E+18</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.75952003986851E+18</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.75952003991715E+18</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.7595200399649101E+18</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.7595200400118799E+18</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.75952004006E+18</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.7595200401089001E+18</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.7595200401727401E+18</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.7595200402050701E+18</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.7595200402672499E+18</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.75952004030109E+18</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.7595200403645E+18</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.7595200404118899E+18</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.75952004045971E+18</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7595200405078899E+18</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7595200405567099E+18</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.7595200406046899E+18</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.7595200406519401E+18</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.7595200407162199E+18</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.7595200407648799E+18</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.7595200408118999E+18</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7595200408596201E+18</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.7595200409089201E+18</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.7595200409730801E+18</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.75952004100464E+18</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.75952004106833E+18</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.7595200410994099E+18</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.7595200411641101E+18</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.7595200412129001E+18</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.7595200412608599E+18</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.7595200413089101E+18</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.7595200413564001E+18</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.75952004141953E+18</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.7595200414515799E+18</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.7595200415170801E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>odom_content_circle!$C$2:$C$407</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="406"/>
+                <c:pt idx="0">
+                  <c:v>-1.651556245322704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6796758154335594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7079272273006549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7318913777072766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7593795671537533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7857813645985652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7803797578481608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7752642417536675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7742600006870364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7764007842636877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7764007842636877</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7764007842636877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7775592547277839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7775154054992619</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7813661038759223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.787196859888647</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7933392552881571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.802893638236591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8197898514511657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.8281641077464699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8484566772615727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8663930803661692</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8832032305269621</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8984324966134443</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.915289433188468</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.9345014340338005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.9606747917715355</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.9729597014345062</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.989298294213689</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.0136102869856618</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0333838739280781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.0545933854698282</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.0739042981894436</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.0943758428164898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.1192061534116888</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.1387446341158549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.1513553549356881</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.1778049450667076</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1965089683420826</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2156436022263146</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.2346982479095918</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.2544099201508918</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.2742013138305159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.2929009076134204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.3121659450364502</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.3370404528109612</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.3560238865231904</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.375810520946068</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.3950054656220736</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.414319249296125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.4338649074682355</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.4519939932973709</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4712967393835812</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.4971886197890543</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.516426079514841</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.5343122623982164</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5532403478426624</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5714963514453171</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.5993962920781666</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.6120651552542853</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.6373174791413945</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.6558576005522307</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.6757825169180731</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.6950083896058161</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.7136140923572714</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.7322331978387586</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.7506345728607857</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.7690976497192352</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.788830234422532</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.8162507661684995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.8354961629704523</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.8538841888926894</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.8721259311837168</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.8909104062269519</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.9171203300148507</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.93081976606183</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.9563945883895211</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.974284220792438</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.9925521780312989</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.0114345942476355</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.0302590250496872</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.0503907340910259</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3.0765240327086056</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.0891226331879578</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.1137890390800291</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.1325645460815523</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1316737097099563</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1129326166455091</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.0938660344130096</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.0737005586653594</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.0478468717746163</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.0356568104436743</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.0175235686722233</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.9928974907796402</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.9740425535229118</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.9541235091347784</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9341502269572457</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9143376130870822</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8959134656545791</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8770769084913792</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.850691528357002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8303316833822088</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.8110594920352141</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.7918832466963077</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.7741861958431389</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.7554102382258079</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.7370404551953573</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.7175872079382626</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.6979626134270025</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.6713420258692535</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.6520116348294986</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.6319368996014645</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.6116229507529143</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.5919573977401429</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5736013418323296</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.5548503422466249</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.5289002907333451</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.5092212708639576</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.4904843087070345</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.4724430756386209</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.453446640101784</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.433465706252071</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.4060164960482089</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.3859222361820871</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.3732731768878539</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.3480762518367682</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.3298615716899027</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.3111334427053927</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.2911919250156987</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.2722534818580304</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2524185748752092</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.2334576796288932</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.2141885171637874</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.1885079475396148</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.1699140679195685</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.1511066720404246</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.131797791321401</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.1118086322074463</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0864552037968833</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.0741224971947938</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0492087495437987</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.030226528112844</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0109695563556396</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.9917347555611162</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.9715126092183517</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.9511463390667976</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.9325027212688253</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.9141518846537546</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.8888817596572136</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8674718462645323</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.8471385693162687</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.8274220373616252</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.8087732613900902</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7917103865766888</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.7671967266407196</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7535295693742508</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7268099895342996</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7073949571556506</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.688874730386805</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.6707544785878143</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.65100183258394</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.6315906209112778</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6116316678917286</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.5922151533400426</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.5739240297725943</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.549379501657473</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5310729264512681</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.5124884688776152</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.4931250789422563</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.4744231960155703</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.4541379684062179</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.4343730784946482</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.4096084182356439</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.3930432790712293</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.3749120706358187</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.3552929604216011</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.3350524891433189</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.3159409416689287</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.2965385696880398</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.277709527433492</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.2608390523736983</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2378159293461417</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.218929781460772</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1997302196930162</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1811981564370269</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1614027435496694</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1422331242281563</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.123631650688439</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.104960713649717</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.0808334816389846</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.062343903447468</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.0421986176609341</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.0218304080880904</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.0030111982174716</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.97856685361639384</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.96813567832953329</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.94415851751209168</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.92430118852925147</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.903150436702849</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.88237844329411597</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.86319307221385888</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.84506741546595909</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.82822290295999024</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.81098846596500662</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.79312088888558974</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.7670309487040281</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.74729514227865457</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.72755387704715091</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.70944056619163753</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.69130453261230895</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.67210505881072935</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.65196865173216523</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.63247690481073382</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.60801502498903048</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.58814821701881093</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.56960462529552691</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.55409092868674781</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.53643493900537664</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.51721694671548779</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.49653260767099089</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.46882571401503231</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.44860111929590407</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.43041515098645733</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.4133198126514811</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.39552467547053788</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.37609494311588765</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.35634451107087917</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.33704569095400183</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.31262691492928318</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.29415184678336298</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.28205998145295108</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.25631068485439157</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.23732737207204854</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.21797187747540633</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.19836887545919837</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.17878758947206014</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.15870672783789258</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.13404425298294975</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.11590426899072366</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.6409414659809192E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.6654365333746727E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5.6053852484907483E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.702494804811661E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.8711122543284872E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6.0326713942300189E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-2.4595835331636604E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-4.453710572262741E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-6.4752798324755168E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-8.4645712659852379E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-0.10285589612685986</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-0.12075692824780471</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.13914081481616625</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.16383839312064347</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.18302740941060736</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.20216959865072945</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-0.22150313273520328</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-0.24066981721070554</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-0.25961924453578705</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-0.27951729656032326</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-0.29848760801690299</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-0.3179343920319565</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.34356961736160524</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-0.36317670109102812</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-0.3816606503203217</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-0.39972361499752945</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.41773287265229603</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.43762204121994869</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.45809956458157397</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.47874368609157469</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-0.50371648817274806</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-0.52196156003343941</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-0.53953081823251681</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-0.55896792201168022</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.57904593585049891</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-0.59833744511559694</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.61728867237885898</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.63461863699220655</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-0.65866932675815115</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-0.67785252831997156</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-0.69821098030406958</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.71744137414529874</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-0.73693094190336272</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-0.75572119308412511</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.774864718682579</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.79343643490257332</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-0.81953160899233624</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.83907525434509156</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-0.85809473200500197</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-0.87698762754930348</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-0.89586524553634483</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-0.91411342247664418</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-0.93372936672281692</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-0.95848868538641774</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-0.97853364757781724</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-0.99837370076482057</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.0179005582234661</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.0371499560527278</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.0549168225014594</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-1.0733260685675057</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.093402754742175</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.1197508732958115</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-1.1388255869851833</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-1.1581773609841981</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-1.1752382892748965</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-1.1932338395818172</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-1.212974201390812</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-1.2330640376731918</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-1.2538556233740192</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-1.2719842611767282</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-1.2980488852262837</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-1.3182588591581204</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-1.3369776504126665</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-1.3564625845272951</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-1.3754810478777235</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-1.3948866553937649</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-1.4144589032715926</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-1.4402791453057833</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-1.4519910233344535</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-1.4782277917971089</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-1.4960490901674242</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-1.514247817767417</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-1.5341591117207953</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-1.5597490508312684</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-1.5731363174964164</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-1.597336757812619</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-1.6163348981418095</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.6340310482438727</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-1.6520931672632233</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1.6710667422107819</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-1.689522243846735</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-1.7095637314013965</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-1.728204234292164</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-1.7540347553144815</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-1.7730672063088055</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-1.790355920062195</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-1.8072249633755386</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1.8258809864836094</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-1.8438875383117834</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-1.8649065568868801</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-1.8833162747428245</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-1.907648562048057</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-1.9241156650692375</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-1.9424984823146183</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-1.9615325705779494</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-1.9803965300493882</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-1.9995982563499328</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-2.0195445777642451</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-2.0393924551786293</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-2.0664266840340768</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-2.0798663376330788</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-2.1047202040630131</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-2.1228761950640918</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-2.1411786323001909</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-2.1613604101279416</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-2.1813747551447533</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-2.201344092721468</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-2.2200514455094758</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-2.2453875260734297</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-2.2648609479523967</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-2.2865861107050205</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-2.3058500908553077</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-2.3245920078015931</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-2.3492883913265135</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-2.3615816661987372</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-2.385248633743994</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-2.4060014643682446</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-2.4250995473853294</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-2.4452837371193983</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-2.4653840687207866</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-2.4857246053231448</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-2.5063594476515636</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-2.524475556126637</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-2.5499271235749852</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-2.5693030506331134</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-2.5888591802559056</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-2.608436082007052</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-2.6271538918496828</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-2.6457114600184339</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-2.6688841955401927</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-2.6814814090214512</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-2.7075505213831703</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-2.7210777001805875</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-2.7469023086352991</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-2.7653134516672027</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-2.7831597479845893</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-2.8010374699820551</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-2.8209601692200548</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-2.8406116718898669</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-2.8596254693791963</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-2.8838431768385648</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-2.9021681305661775</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-2.9202176125252022</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-2.9383277940661889</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-2.9570051143105274</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-2.9832167751981014</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-2.9970880453047206</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-3.023316155480861</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-3.0356250225406614</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-3.0601000066638853</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-3.0787818822063731</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-3.0972377397447941</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-3.1165641742073857</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-3.1371136771451704</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>3.1205037138265914</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>3.1078077130761468</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3.0849009159913869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-411D-40F8-92DF-34DE1C7ADF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="308887119"/>
+        <c:axId val="308887599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="308887119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (ns)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308887599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="308887599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Odometry Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308887119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2323</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123903</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465E9835-1C37-C4E0-E0C7-02119DABAEAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -907,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7E434D-E832-4F4F-8E85-F6DC35EDA579}">
   <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6613,5 +15088,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>